--- a/skrum_docs/04_SpecificDesign/27_Setting(Group)_グループ設定画面仕様書_20170713.xlsx
+++ b/skrum_docs/04_SpecificDesign/27_Setting(Group)_グループ設定画面仕様書_20170713.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="グループ作成" sheetId="1" r:id="rId1"/>
@@ -646,6 +646,179 @@
             <a:t> error message is shown around here with red characters.</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8293100" y="2336800"/>
+          <a:ext cx="596900" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>205252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199993</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形吹き出し 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9557071" y="205252"/>
+          <a:ext cx="3060700" cy="1854200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72235"/>
+            <a:gd name="adj2" fmla="val 62250"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>【User who can see】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SUPER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ADMIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>BASIC USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>×</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2877,6 +3050,262 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
             <a:t>".</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="15532100"/>
+          <a:ext cx="2222500" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="四角形吹き出し 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15570200" y="14998700"/>
+          <a:ext cx="3060700" cy="4394200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62231"/>
+            <a:gd name="adj2" fmla="val -31418"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>【User who can see】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>For DEPARTMENT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SUPER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ADMIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>BASIC USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>×</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>For</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> TEAM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SUPER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ADMIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>BASIC USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
@@ -3152,7 +3581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
